--- a/new-stats/cerro-largo-fc.xlsx
+++ b/new-stats/cerro-largo-fc.xlsx
@@ -1272,22 +1272,58 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>18/05/2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>9</v>
+      </c>
+      <c r="N16" t="n">
+        <v>12</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>

--- a/new-stats/cerro-largo-fc.xlsx
+++ b/new-stats/cerro-largo-fc.xlsx
@@ -1326,22 +1326,58 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>25/05/2025</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Defensor Sp.</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>13</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>10</v>
+      </c>
+      <c r="P17" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>

--- a/new-stats/cerro-largo-fc.xlsx
+++ b/new-stats/cerro-largo-fc.xlsx
@@ -1380,22 +1380,58 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>01/06/2025</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>6</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>

--- a/new-stats/cerro-largo-fc.xlsx
+++ b/new-stats/cerro-largo-fc.xlsx
@@ -1434,22 +1434,58 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>07/06/2025</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liverpool M.</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>8</v>
+      </c>
+      <c r="N19" t="n">
+        <v>13</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>

--- a/new-stats/cerro-largo-fc.xlsx
+++ b/new-stats/cerro-largo-fc.xlsx
@@ -1488,22 +1488,58 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12/06/2025</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>9</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>

--- a/new-stats/cerro-largo-fc.xlsx
+++ b/new-stats/cerro-largo-fc.xlsx
@@ -1542,40 +1542,112 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>19/06/2025</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Cerro CA</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>24/06/2025</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Plaza Colonia</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>

--- a/new-stats/cerro-largo-fc.xlsx
+++ b/new-stats/cerro-largo-fc.xlsx
@@ -1650,22 +1650,58 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>

--- a/new-stats/cerro-largo-fc.xlsx
+++ b/new-stats/cerro-largo-fc.xlsx
@@ -1704,22 +1704,58 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>02/08/2025</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Juventud</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" t="n">
+        <v>3</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
